--- a/docs/PST1/PST1_12.08.24_output.xlsx
+++ b/docs/PST1/PST1_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2345 +505,2775 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730742575.889241</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730742576.0039341</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742575.889241.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742576.0039341.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.77</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.7300000000000182</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730742577.5867383</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730742577.7745073</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742577.5867383.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742577.7745073.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.25</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.95</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730742583.7933648</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730742585.8782418</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742583.7933648.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742585.8782418.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278.71</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>279.37</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.660000000000025</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730742585.8928354</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730742587.7308295</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742585.8928354.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742587.7308295.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>279.37</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>279.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730742588.563446</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730742589.610271</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742588.563446.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742589.610271.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>279.64</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>280.12</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.4800000000000182</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730742590.010394</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730742590.1614273</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742590.010394.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1730742590.1614273.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>280.12</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>280.4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.2799999999999727</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730742590.7817574</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730742590.8848305</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742590.7817574.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742590.8848305.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>277.77</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.7300000000000182</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730742592.1330829</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730742592.304805</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742592.1330829.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742592.304805.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.25</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>277.95</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730742597.7533495</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730742599.7322292</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742597.7533495.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742599.7322292.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278.71</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>279.37</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.660000000000025</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730742599.7461936</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730742601.500044</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742599.7461936.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742601.500044.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>279.37</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>279.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730742602.2833657</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730742603.284276</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742602.2833657.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742603.284276.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>279.64</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>280.12</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.4800000000000182</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730742603.660175</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730742603.7840123</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742603.660175.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742603.7840123.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>280.12</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>280.4</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.2799999999999727</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730742608.1484852</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730742610.140825</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742608.1484852.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742610.140825.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.46</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>279.06</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.6000000000000227</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730742612.2907693</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730742613.2755904</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742612.2907693.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742613.2755904.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>279.44</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>279.7</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.2599999999999909</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730742613.2905185</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730742614.2898765</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742613.2905185.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742614.2898765.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>279.7</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>280.19</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.4900000000000091</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730742614.8277056</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730742615.8313193</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742614.8277056.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742615.8313193.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>280.28</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>280.31</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.03000000000002956</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730742616.088023</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730742616.6496222</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742616.088023.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742616.6496222.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>280.04</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>280.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730742617.6615202</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730742618.4136004</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742617.6615202.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742618.4136004.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>280.6</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>280.79</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730742618.6335511</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730742618.7269151</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742618.6335511.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/SBER1730742618.7269151.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>280.79</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>281.04</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730742620.278355</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730742621.9838536</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742620.278355.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742621.9838536.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>128</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>127.79</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2099999999999937</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730742624.5319064</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730742626.1403787</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742624.5319064.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742626.1403787.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>127.68</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>127.51</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730742626.849008</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730742627.6692803</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742626.849008.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742627.6692803.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>127.65</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>127.62</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730742627.7246926</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730742631.1378658</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742627.7246926.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742631.1378658.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>127.67</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>128.04</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.3699999999999903</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730742631.1537955</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730742632.0597038</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742631.1537955.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742632.0597038.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>128.04</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>128.27</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.2300000000000182</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730742633.633513</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730742634.4568303</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742633.633513.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730742634.4568303.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>128.84</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>129.02</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730742635.872421</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730742636.4419613</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742635.872421.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742636.4419613.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6371</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6380</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-9</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730742639.804914</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730742642.387603</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742639.804914.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742642.387603.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6332</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>6338.5</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-6.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730742643.0827181</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730742644.2010596</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742643.0827181.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742644.2010596.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6349.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6385</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-35.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730742645.076211</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730742646.0995035</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742645.076211.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742646.0995035.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6383.5</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6373</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>10.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730742646.1144636</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730742646.8738837</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742646.1144636.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742646.8738837.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6373</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>6372.5</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730742648.691777</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730742649.6475375</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742648.691777.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730742649.6475375.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>6418</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>6431</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>13</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730742651.02889</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730742651.546443</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742651.02889.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742651.546443.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>502.3</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>501.3</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730742653.9854116</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730742654.151458</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742653.9854116.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742654.151458.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>497</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>495.6</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730742655.0389225</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730742656.8024464</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742655.0389225.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742656.8024464.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>496.05</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>496.1</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730742658.74972</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730742659.9534853</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742658.74972.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742659.9534853.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>498.2</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>498.4</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.1999999999999886</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730742661.0390325</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730742665.2214038</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742661.0390325.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742665.2214038.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>500.1</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>501</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.8999999999999773</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730742665.2376072</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730742665.6190052</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742665.2376072.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730742665.6190052.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>501</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>501.6</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730742667.328018</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730742668.3536093</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742667.328018.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742668.3536093.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>224.75</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>224.41</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730742669.0084047</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730742669.354814</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742669.0084047.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742669.354814.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>224.66</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>224.35</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730742670.842506</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730742671.9406586</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742670.842506.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742671.9406586.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>224.76</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>224.43</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.3299999999999841</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730742673.6364493</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730742676.4339218</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742673.6364493.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742676.4339218.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>225.09</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>226.1</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-1.009999999999991</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730742676.4488826</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730742678.4094524</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742676.4488826.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742678.4094524.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>226.1</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>226.44</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730742679.3732898</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730742679.7708347</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742679.3732898.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730742679.7708347.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>226</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>226.06</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730742681.75733</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730742683.062352</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742681.75733.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742683.062352.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1009.4</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1014</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-4.600000000000023</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730742684.8676975</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730742686.158312</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742684.8676975.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742686.158312.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1010.4</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1012.8</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-2.399999999999977</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730742686.571712</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730742689.6447754</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742686.571712.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742689.6447754.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1015</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1018</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730742689.660763</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730742691.421423</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742689.660763.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742691.421423.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1018</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1018</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2836,342 +3281,405 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730742691.8342178</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730742692.8737855</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742691.8342178.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742692.8737855.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1020.6</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1021.4</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730742693.2024763</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730742693.2578812</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742693.2024763.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742693.2578812.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1018.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1017.6</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-1.199999999999932</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730742694.7727082</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730742695.0657723</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742694.7727082.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742695.0657723.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1023.6</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1031.6</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>7.999999999999886</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.7799999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730742695.630209</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730742696.248929</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742695.630209.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730742696.248929.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1028.8</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1032</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>3.200000000000045</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730742696.7614906</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730742697.239801</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742696.7614906.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742697.239801.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>11.941</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>11.939</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.002000000000000668</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730742698.8104236</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730742700.7030518</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742698.8104236.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742700.7030518.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>11.92</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>11.909</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.01099999999999923</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730742703.2585363</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730742707.3417282</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742703.2585363.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742707.3417282.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>11.946</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>11.946</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3179,195 +3687,231 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730742707.3576906</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730742708.2076604</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742707.3576906.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CNY1730742708.2076604.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>11.946</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>11.962</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.01600000000000001</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730742712.2616675</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1730742715.1337316</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742712.2616675.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742715.1337316.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>123.64</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>123.18</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.4599999999999937</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730742715.1496608</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730742716.5712109</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742715.1496608.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742716.5712109.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>123.18</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>123.7</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.519999999999996</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730742716.5881653</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1730742720.5904524</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742716.5881653.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742720.5904524.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>123.7</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>123.7</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,2526 +3919,3027 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730742720.6074073</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730742720.98943</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742720.6074073.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742720.98943.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>123.7</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>123.9</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730742721.765384</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730742723.2198732</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742721.765384.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742723.2198732.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>124.08</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>124.14</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730742724.3837965</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730742725.0477197</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742724.3837965.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730742725.0477197.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>124.52</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>124.58</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730742726.735488</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730742729.768107</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742726.735488.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742729.768107.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>158.4</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>159.04</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.6399999999999864</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730742730.5716662</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1730742731.3436463</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742730.5716662.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742731.3436463.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>159.38</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>159.26</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730742733.4875524</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1730742736.9748383</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742733.4875524.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742736.9748383.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>160</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>161.68</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-1.680000000000007</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-1.05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730742736.9913623</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730742738.0525794</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742736.9913623.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742738.0525794.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>161.68</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>162.12</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730742738.3488936</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1730742740.034962</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742738.3488936.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730742740.034962.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>162</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>162.32</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730742740.690852</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1730742740.690852.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1730742740.690852.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>162.22</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>162.3</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.08000000000001251</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730742742.151866</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1730742743.1374254</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742742.151866.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742743.1374254.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>49.055</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>48.975</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730742746.1074903</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730742751.9109278</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742746.1074903.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742751.9109278.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>49.29</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>49.87</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.5799999999999983</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730742751.926916</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1730742752.9338236</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742751.926916.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742752.9338236.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>49.87</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>50.19</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.3200000000000003</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730742753.464829</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1730742756.0352252</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742753.464829.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730742756.0352252.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>49.99</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>50.23</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730742760.967809</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1730742764.249247</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742760.967809.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742764.249247.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>1373</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>1376.8</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-3.799999999999955</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1730742764.2652037</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1730742764.3589253</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742764.2652037.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742764.3589253.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>1376.8</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>1378.6</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1730742765.7482626</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1730742766.2398124</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742765.7482626.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742766.2398124.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>1379.2</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>1384.6</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>5.399999999999864</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1730742766.6108785</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1730742767.4842103</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742766.6108785.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730742767.4842103.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>1382.8</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>1384</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1730742772.60649</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1730742774.4621773</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742772.60649.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730742774.4621773.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>61.16</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>60.82</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.3399999999999963</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1730742776.1327796</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730742776.1327796.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730742776.1327796.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>61.05</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>61.52</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.470000000000006</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.77</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1730742787.498968</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1730742787.750096</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742787.498968.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742787.750096.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>96.75</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>96.87</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1730742787.768048</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1730742790.334464</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742787.768048.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742790.334464.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>96.87</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>96.84</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1730742790.3514452</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1730742792.4863505</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742790.3514452.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742792.4863505.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>96.84</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>97.31</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.4699999999999989</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1730742792.5033028</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1730742796.359614</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742792.5033028.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742796.359614.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>97.31</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>97.43000000000001</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1730742796.3765686</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1730742797.086867</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742796.3765686.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742797.086867.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>97.43000000000001</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>97.67</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1730742798.2503762</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1730742799.1734598</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742798.2503762.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730742799.1734598.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>97.84999999999999</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>97.72</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1730742802.7321634</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1730742811.7044055</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SELG1730742802.7321634.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SELG1730742811.7044055.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>55.34</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>55.55</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.2099999999999937</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1730742811.7205274</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1730742812.6982193</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SELG1730742811.7205274.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SELG1730742812.6982193.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>55.55</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>55.74</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.1900000000000048</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1730742815.096036</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1730742815.180809</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742815.096036.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742815.180809.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>150.74</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>150.34</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1730742815.9776092</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1730742817.5760505</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742815.9776092.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742817.5760505.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>150.82</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>149.54</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>1.280000000000001</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1730742818.12694</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1730742818.6570342</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742818.12694.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730742818.6570342.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>149.86</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>149.4</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1730742823.5783448</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1730742823.5783448.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1730742823.5783448.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>149.42</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>153.52</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-4.100000000000023</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-2.74</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1730742830.5479777</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1730742832.5598128</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MRKP1730742830.5479777.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MRKP1730742832.5598128.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>0.2938</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>0.2927</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.00109999999999999</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1730742833.3927083</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1730742837.7142656</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MRKP1730742833.3927083.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MRKP1730742837.7142656.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>0.2941</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>0.2957</v>
       </c>
-      <c r="K93" t="n">
-        <v>-0.00159999999999999</v>
+      <c r="M93" t="n">
+        <v>-0.001600000000000046</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1730742837.7307563</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1730742838.8286915</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MRKP1730742837.7307563.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MRKP1730742838.8286915.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>0.2957</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>0.2967</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.001000000000000001</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1730742844.5722966</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1730742846.0458746</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742844.5722966.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742846.0458746.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>19.856</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>19.871</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.01499999999999702</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1730742847.6794136</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1730742849.1296456</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742847.6794136.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742849.1296456.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>19.925</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>19.943</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-0.01800000000000068</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1730742849.1483924</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1730742850.0232413</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742849.1483924.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742850.0232413.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>19.943</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>19.975</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.03200000000000003</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1730742850.6050096</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1730742851.904063</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742850.6050096.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742851.904063.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>19.977</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>19.959</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-0.01800000000000068</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1730742852.0452492</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1730742852.6379576</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742852.0452492.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742852.6379576.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>19.919</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>20.015</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.09600000000000009</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1730742853.7581084</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1730742854.4731028</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742853.7581084.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730742854.4731028.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>20.059</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>20.119</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.05999999999999872</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1730742855.2895155</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1730742855.2895155.png</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1730742855.2895155.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>20.056</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>20.035</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-0.0210000000000008</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1730742855.4433918</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1730742856.8355725</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742855.4433918.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742856.8355725.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>665.55</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>665.1</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.4499999999999318</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1730742857.0591905</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1730742857.2818618</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742857.0591905.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742857.2818618.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>666</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>665</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1730742857.869995</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1730742858.9401267</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742857.869995.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742858.9401267.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>664.05</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>664.5</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.4500000000000455</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1730742860.7510026</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1730742865.479579</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742860.7510026.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742865.479579.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>667.05</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>670.55</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-3.5</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1730742865.4972634</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1730742866.2371745</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742865.4972634.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730742866.2371745.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>670.55</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>670.1</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>-0.4499999999999318</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1730742869.7037232</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1730742869.7037232.png</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1730742869.7037232.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>674.65</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>674.45</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-0.1999999999999318</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1730742870.5485542</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1730742871.708146</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742870.5485542.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742871.708146.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>149.73</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>149.54</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1730742873.083582</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1730742873.646622</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742873.083582.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742873.646622.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>149.39</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>149.26</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1730742878.591988</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1730742879.3822982</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742878.591988.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742879.3822982.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>150.47</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>150.9</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>-0.4300000000000068</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1730742879.3989623</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1730742879.9673505</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742879.3989623.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742879.9673505.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>150.9</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>152.1</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>1.199999999999989</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1730742880.7034798</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1730742882.804118</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742880.7034798.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730742882.804118.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>152.94</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>153.16</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1730742884.705854</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1730742884.705854.png</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1730742884.705854.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>153.99</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>153.96</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5907,7 +6952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5931,6 +6976,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5944,6 +7004,15 @@
       <c r="C2" t="n">
         <v>13</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.03538461538461381</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5957,6 +7026,15 @@
       <c r="C3" t="n">
         <v>8</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5965,140 +7043,239 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1370000000000005</v>
+        <v>0.1159999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01657142857142852</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6099999999999994</v>
+        <v>-1.359999999999985</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.2266666666666642</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.8500000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4500000000000313</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.1016666666666666</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.299999999999997</v>
+        <v>-3.149999999999977</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.5249999999999962</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-28</v>
+        <v>-0.2000000000000455</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.03333333333334091</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.07000000000000003</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2000000000000455</v>
+        <v>1.850000000000023</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.3083333333333371</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3700000000000045</v>
+        <v>1.279999999999973</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.2133333333333288</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.850000000000023</v>
+        <v>0.3700000000000045</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.06166666666666742</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.950000000000045</v>
+        <v>-28</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-4.666666666666667</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.309999999999974</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2166666666666662</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.439999999999998</v>
+        <v>0.4500000000000313</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.07500000000000522</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="15">
@@ -6113,6 +7290,15 @@
       <c r="C15" t="n">
         <v>4</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.01499999999999879</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6126,70 +7312,124 @@
       <c r="C16" t="n">
         <v>4</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.006249999999999645</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.599999999999909</v>
+        <v>-1.960000000000008</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.490000000000002</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MRKP</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0005000000000000004</v>
+        <v>4.599999999999909</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.149999999999977</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>MRKP</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.140000000000015</v>
+        <v>0.0004999999999999449</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.0001666666666666483</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01999999999998892</v>
+        <v>-0.8100000000000023</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.4050000000000011</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.66</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.3399999999999963</v>
+        <v>-0.01999999999998892</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.009999999999994458</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="22">
@@ -6204,6 +7444,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
